--- a/LCD/tables/assembly_classification.xlsx
+++ b/LCD/tables/assembly_classification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EE4113-6B1E-427F-9177-639AF12CA2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BCCF2D-71E1-4691-9919-A4A949E4A7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
   <si>
     <t>property1</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>materialGroup</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1043,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
